--- a/spec/ASW/Eng/EGR/EGRVlv/EGRVlv_DDSens/EGRVlv_DDSens.xlsx
+++ b/spec/ASW/Eng/EGR/EGRVlv/EGRVlv_DDSens/EGRVlv_DDSens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\EGR\EGRVlv\EGRVlv_DDSens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B509B1E0-D56F-4F87-89A9-FBE1EF76CA59}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ED78B6-06BF-43F0-9FCF-2BCCE0D8F1D5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -322,30 +322,6 @@
   </si>
   <si>
     <t>Long time drift threshold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EGRVlv_rCmpNewCtlUn_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default value for the new ECU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRC_100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 percent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRC_ZERO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 percent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -801,7 +777,7 @@
         <v>5000</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -810,7 +786,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>13</v>
@@ -827,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -850,7 +826,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -859,7 +835,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>19</v>
@@ -876,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -952,7 +928,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -961,7 +937,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>23</v>
@@ -978,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -1001,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -1024,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -1047,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -1070,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1093,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -1116,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1139,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1214,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -1237,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -1260,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -1283,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -1303,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1366,7 +1342,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>51</v>
@@ -1392,7 +1368,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>54</v>
@@ -1409,7 +1385,7 @@
         <v>6553.5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E4" s="6">
         <v>200</v>
@@ -1418,7 +1394,7 @@
         <v>56</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>57</v>
@@ -1435,7 +1411,7 @@
         <v>6553.5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E5" s="5">
         <v>200</v>
@@ -1444,7 +1420,7 @@
         <v>56</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>57</v>
@@ -1461,7 +1437,7 @@
         <v>6553.5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E6" s="6">
         <v>200</v>
@@ -1470,7 +1446,7 @@
         <v>56</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>60</v>
@@ -1487,7 +1463,7 @@
         <v>6553.5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E7" s="6">
         <v>200</v>
@@ -1496,7 +1472,7 @@
         <v>56</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>60</v>
@@ -1513,7 +1489,7 @@
         <v>5000</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E8" s="5">
         <v>4800</v>
@@ -1522,7 +1498,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>63</v>
@@ -1539,7 +1515,7 @@
         <v>5000</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E9" s="5">
         <v>200</v>
@@ -1548,7 +1524,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>65</v>
@@ -1565,7 +1541,7 @@
         <v>6553.5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E10" s="5">
         <v>200</v>
@@ -1574,7 +1550,7 @@
         <v>56</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>67</v>
@@ -1591,7 +1567,7 @@
         <v>6553.5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E11" s="6">
         <v>200</v>
@@ -1600,7 +1576,7 @@
         <v>56</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>67</v>
@@ -1617,7 +1593,7 @@
         <v>6553.5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E12" s="6">
         <v>200</v>
@@ -1626,7 +1602,7 @@
         <v>56</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>70</v>
@@ -1643,7 +1619,7 @@
         <v>6553.5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E13" s="5">
         <v>200</v>
@@ -1652,7 +1628,7 @@
         <v>56</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>70</v>
@@ -1669,7 +1645,7 @@
         <v>100</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -1678,79 +1654,53 @@
         <v>18</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="5">
-        <v>-100</v>
-      </c>
-      <c r="C15" s="5">
-        <v>100</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="5">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="6"/>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="6"/>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="6"/>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="6"/>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="6"/>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="6"/>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1761,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1794,40 +1744,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="5">
-        <v>100</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spec/ASW/Eng/EGR/EGRVlv/EGRVlv_DDSens/EGRVlv_DDSens.xlsx
+++ b/spec/ASW/Eng/EGR/EGRVlv/EGRVlv_DDSens/EGRVlv_DDSens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\EGR\EGRVlv\EGRVlv_DDSens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ED78B6-06BF-43F0-9FCF-2BCCE0D8F1D5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09598027-04E2-4BB8-9F37-36B4BA92BFFA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -332,10 +332,29 @@
     <t>DutyCycle</t>
   </si>
   <si>
-    <t>Volt_mV</t>
-  </si>
-  <si>
     <t>Debncd_ms</t>
+  </si>
+  <si>
+    <t>FM_EGRVlv_SRC_FG_CA</t>
+  </si>
+  <si>
+    <t>[1 10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zeros(1,10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volt_mV1</t>
   </si>
 </sst>
 </file>
@@ -726,7 +745,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -786,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>13</v>
@@ -876,7 +895,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1281,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1342,7 +1361,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>51</v>
@@ -1382,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>6553.5</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>74</v>
@@ -1394,7 +1413,7 @@
         <v>56</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>57</v>
@@ -1408,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="5">
-        <v>6553.5</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>74</v>
@@ -1420,7 +1439,7 @@
         <v>56</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>57</v>
@@ -1434,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="5">
-        <v>6553.5</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>74</v>
@@ -1446,7 +1465,7 @@
         <v>56</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>60</v>
@@ -1460,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>6553.5</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>74</v>
@@ -1472,7 +1491,7 @@
         <v>56</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>60</v>
@@ -1498,7 +1517,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>63</v>
@@ -1524,7 +1543,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>65</v>
@@ -1538,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="5">
-        <v>6553.5</v>
+        <v>1000</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>74</v>
@@ -1550,7 +1569,7 @@
         <v>56</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>67</v>
@@ -1564,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="5">
-        <v>6553.5</v>
+        <v>1000</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>74</v>
@@ -1576,7 +1595,7 @@
         <v>56</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>67</v>
@@ -1590,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="5">
-        <v>6553.5</v>
+        <v>1000</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>74</v>
@@ -1602,7 +1621,7 @@
         <v>56</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>70</v>
@@ -1616,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="5">
-        <v>6553.5</v>
+        <v>1000</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>74</v>
@@ -1628,7 +1647,7 @@
         <v>56</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>70</v>
@@ -1661,7 +1680,27 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>65535</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E16" s="6"/>
@@ -1713,7 +1752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
